--- a/Instrumentos/Codigos/FinalData/Top 300.xlsx
+++ b/Instrumentos/Codigos/FinalData/Top 300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aylto\Code\Projects\School\TIS6\Instrumentos\Codigos\FinalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27D238-39FD-4C2A-8877-A84D621F19E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2200E-9DF9-4A8E-86D5-890F31170E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="990" windowWidth="18615" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="810" windowWidth="18045" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top300" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1143">
   <si>
     <t>name_with_owner</t>
   </si>
@@ -2735,6 +2735,720 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>pullRequests</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>ageInYears</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>5.93</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>7.77</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
 </sst>
 </file>
@@ -3575,18 +4289,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>904</v>
       </c>
@@ -3602,8 +4320,17 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3619,8 +4346,17 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>13142</v>
+      </c>
+      <c r="G2">
+        <v>13007</v>
+      </c>
+      <c r="H2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3636,8 +4372,17 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4595</v>
+      </c>
+      <c r="G3">
+        <v>16380</v>
+      </c>
+      <c r="H3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3653,8 +4398,17 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3497</v>
+      </c>
+      <c r="G4">
+        <v>9914</v>
+      </c>
+      <c r="H4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3670,8 +4424,17 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>258</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3687,8 +4450,17 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1049</v>
+      </c>
+      <c r="G6">
+        <v>5520</v>
+      </c>
+      <c r="H6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3704,8 +4476,17 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>599</v>
+      </c>
+      <c r="G7">
+        <v>1041</v>
+      </c>
+      <c r="H7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3721,8 +4502,17 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>796</v>
+      </c>
+      <c r="G8">
+        <v>1721</v>
+      </c>
+      <c r="H8" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3738,8 +4528,17 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>549</v>
+      </c>
+      <c r="G9">
+        <v>1445</v>
+      </c>
+      <c r="H9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3755,8 +4554,17 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>3241</v>
+      </c>
+      <c r="G10">
+        <v>5676</v>
+      </c>
+      <c r="H10" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3772,8 +4580,17 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>472</v>
+      </c>
+      <c r="G11">
+        <v>3278</v>
+      </c>
+      <c r="H11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3789,8 +4606,17 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1773</v>
+      </c>
+      <c r="G12">
+        <v>1808</v>
+      </c>
+      <c r="H12" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3806,8 +4632,17 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>406</v>
+      </c>
+      <c r="G13">
+        <v>1223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3823,8 +4658,17 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1816</v>
+      </c>
+      <c r="G14">
+        <v>2388</v>
+      </c>
+      <c r="H14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3840,8 +4684,17 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>723</v>
+      </c>
+      <c r="H15" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3857,8 +4710,17 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>10505</v>
+      </c>
+      <c r="G16">
+        <v>7653</v>
+      </c>
+      <c r="H16" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3874,8 +4736,17 @@
       <c r="E17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>338</v>
+      </c>
+      <c r="G17">
+        <v>483</v>
+      </c>
+      <c r="H17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3891,8 +4762,17 @@
       <c r="E18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>757</v>
+      </c>
+      <c r="G18">
+        <v>3042</v>
+      </c>
+      <c r="H18" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3908,8 +4788,17 @@
       <c r="E19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <v>590</v>
+      </c>
+      <c r="H19" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3925,8 +4814,17 @@
       <c r="E20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>337</v>
+      </c>
+      <c r="G20">
+        <v>475</v>
+      </c>
+      <c r="H20" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3942,8 +4840,17 @@
       <c r="E21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>633</v>
+      </c>
+      <c r="G21">
+        <v>469</v>
+      </c>
+      <c r="H21" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3959,8 +4866,17 @@
       <c r="E22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>163</v>
+      </c>
+      <c r="G22">
+        <v>431</v>
+      </c>
+      <c r="H22" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3976,8 +4892,17 @@
       <c r="E23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>418</v>
+      </c>
+      <c r="H23" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3993,8 +4918,17 @@
       <c r="E24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>3478</v>
+      </c>
+      <c r="G24">
+        <v>782</v>
+      </c>
+      <c r="H24" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4010,8 +4944,17 @@
       <c r="E25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4027,8 +4970,17 @@
       <c r="E26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>3845</v>
+      </c>
+      <c r="G26">
+        <v>1636</v>
+      </c>
+      <c r="H26" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4044,8 +4996,17 @@
       <c r="E27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1111</v>
+      </c>
+      <c r="G27">
+        <v>543</v>
+      </c>
+      <c r="H27" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4061,8 +5022,17 @@
       <c r="E28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>491</v>
+      </c>
+      <c r="H28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4078,8 +5048,17 @@
       <c r="E29" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>680</v>
+      </c>
+      <c r="H29" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4095,8 +5074,17 @@
       <c r="E30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>233</v>
+      </c>
+      <c r="G30">
+        <v>671</v>
+      </c>
+      <c r="H30" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4112,8 +5100,17 @@
       <c r="E31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>730</v>
+      </c>
+      <c r="G31">
+        <v>642</v>
+      </c>
+      <c r="H31" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4129,8 +5126,17 @@
       <c r="E32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1290</v>
+      </c>
+      <c r="G32">
+        <v>594</v>
+      </c>
+      <c r="H32" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4146,8 +5152,17 @@
       <c r="E33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>646</v>
+      </c>
+      <c r="G33">
+        <v>1010</v>
+      </c>
+      <c r="H33" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4163,8 +5178,17 @@
       <c r="E34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>206</v>
+      </c>
+      <c r="G34">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4180,8 +5204,17 @@
       <c r="E35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>139</v>
+      </c>
+      <c r="G35">
+        <v>348</v>
+      </c>
+      <c r="H35" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4197,8 +5230,17 @@
       <c r="E36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>482</v>
+      </c>
+      <c r="G36">
+        <v>636</v>
+      </c>
+      <c r="H36" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4214,8 +5256,17 @@
       <c r="E37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>251</v>
+      </c>
+      <c r="G37">
+        <v>241</v>
+      </c>
+      <c r="H37" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4231,8 +5282,17 @@
       <c r="E38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>382</v>
+      </c>
+      <c r="H38" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4248,8 +5308,17 @@
       <c r="E39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>147</v>
+      </c>
+      <c r="G39">
+        <v>472</v>
+      </c>
+      <c r="H39" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4265,8 +5334,17 @@
       <c r="E40" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4282,8 +5360,17 @@
       <c r="E41" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4299,8 +5386,17 @@
       <c r="E42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4316,8 +5412,17 @@
       <c r="E43" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>53</v>
+      </c>
+      <c r="G43">
+        <v>374</v>
+      </c>
+      <c r="H43" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4333,8 +5438,17 @@
       <c r="E44" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4350,8 +5464,17 @@
       <c r="E45" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>104</v>
+      </c>
+      <c r="G45">
+        <v>357</v>
+      </c>
+      <c r="H45" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4367,8 +5490,17 @@
       <c r="E46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4384,8 +5516,17 @@
       <c r="E47" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>456</v>
+      </c>
+      <c r="G47">
+        <v>595</v>
+      </c>
+      <c r="H47" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4401,8 +5542,17 @@
       <c r="E48" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>256</v>
+      </c>
+      <c r="G48">
+        <v>490</v>
+      </c>
+      <c r="H48" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4418,8 +5568,17 @@
       <c r="E49" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>23</v>
+      </c>
+      <c r="G49">
+        <v>319</v>
+      </c>
+      <c r="H49" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4435,8 +5594,17 @@
       <c r="E50" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>65</v>
+      </c>
+      <c r="G50">
+        <v>123</v>
+      </c>
+      <c r="H50" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4452,8 +5620,17 @@
       <c r="E51" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4469,8 +5646,17 @@
       <c r="E52" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>184</v>
+      </c>
+      <c r="H52" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4486,8 +5672,17 @@
       <c r="E53" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>105</v>
+      </c>
+      <c r="G53">
+        <v>223</v>
+      </c>
+      <c r="H53" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4503,8 +5698,17 @@
       <c r="E54" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>148</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
+      <c r="H54" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4520,8 +5724,17 @@
       <c r="E55" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>136</v>
+      </c>
+      <c r="G55">
+        <v>450</v>
+      </c>
+      <c r="H55" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4537,8 +5750,17 @@
       <c r="E56" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>620</v>
+      </c>
+      <c r="G56">
+        <v>476</v>
+      </c>
+      <c r="H56" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4554,8 +5776,17 @@
       <c r="E57" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4571,8 +5802,17 @@
       <c r="E58" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>250</v>
+      </c>
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4588,8 +5828,17 @@
       <c r="E59" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>303</v>
+      </c>
+      <c r="G59">
+        <v>465</v>
+      </c>
+      <c r="H59" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4605,8 +5854,17 @@
       <c r="E60" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>106</v>
+      </c>
+      <c r="G60">
+        <v>217</v>
+      </c>
+      <c r="H60" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4622,8 +5880,17 @@
       <c r="E61" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>572</v>
+      </c>
+      <c r="G61">
+        <v>189</v>
+      </c>
+      <c r="H61" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4639,8 +5906,17 @@
       <c r="E62" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>89</v>
+      </c>
+      <c r="G62">
+        <v>252</v>
+      </c>
+      <c r="H62" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4656,8 +5932,17 @@
       <c r="E63" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>92</v>
+      </c>
+      <c r="G63">
+        <v>380</v>
+      </c>
+      <c r="H63" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4673,8 +5958,17 @@
       <c r="E64" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>103</v>
+      </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4690,8 +5984,17 @@
       <c r="E65" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>104</v>
+      </c>
+      <c r="G65">
+        <v>297</v>
+      </c>
+      <c r="H65" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4707,8 +6010,17 @@
       <c r="E66" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>22</v>
+      </c>
+      <c r="G66">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4724,8 +6036,17 @@
       <c r="E67" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>65</v>
+      </c>
+      <c r="G67">
+        <v>118</v>
+      </c>
+      <c r="H67" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4741,8 +6062,17 @@
       <c r="E68" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4758,8 +6088,17 @@
       <c r="E69" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>274</v>
+      </c>
+      <c r="G69">
+        <v>1771</v>
+      </c>
+      <c r="H69" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4775,8 +6114,17 @@
       <c r="E70" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4792,8 +6140,17 @@
       <c r="E71" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>40</v>
+      </c>
+      <c r="G71">
+        <v>60</v>
+      </c>
+      <c r="H71" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4809,8 +6166,17 @@
       <c r="E72" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>143</v>
+      </c>
+      <c r="G72">
+        <v>215</v>
+      </c>
+      <c r="H72" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4826,8 +6192,17 @@
       <c r="E73" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>103</v>
+      </c>
+      <c r="G73">
+        <v>716</v>
+      </c>
+      <c r="H73" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4843,8 +6218,17 @@
       <c r="E74" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>331</v>
+      </c>
+      <c r="G74">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4860,8 +6244,17 @@
       <c r="E75" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>128</v>
+      </c>
+      <c r="G75">
+        <v>269</v>
+      </c>
+      <c r="H75" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4877,8 +6270,17 @@
       <c r="E76" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>377</v>
+      </c>
+      <c r="G76">
+        <v>195</v>
+      </c>
+      <c r="H76" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4894,8 +6296,17 @@
       <c r="E77" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>27</v>
+      </c>
+      <c r="G77">
+        <v>103</v>
+      </c>
+      <c r="H77" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4911,8 +6322,17 @@
       <c r="E78" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>309</v>
+      </c>
+      <c r="G78">
+        <v>194</v>
+      </c>
+      <c r="H78" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4928,8 +6348,17 @@
       <c r="E79" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>128</v>
+      </c>
+      <c r="G79">
+        <v>84</v>
+      </c>
+      <c r="H79" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4945,8 +6374,17 @@
       <c r="E80" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>212</v>
+      </c>
+      <c r="G80">
+        <v>391</v>
+      </c>
+      <c r="H80" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4962,8 +6400,17 @@
       <c r="E81" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>1885</v>
+      </c>
+      <c r="G81">
+        <v>1449</v>
+      </c>
+      <c r="H81" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4979,8 +6426,17 @@
       <c r="E82" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>1384</v>
+      </c>
+      <c r="G82">
+        <v>851</v>
+      </c>
+      <c r="H82" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4996,8 +6452,17 @@
       <c r="E83" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>66</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5013,8 +6478,17 @@
       <c r="E84" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>834</v>
+      </c>
+      <c r="G84">
+        <v>265</v>
+      </c>
+      <c r="H84" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5030,8 +6504,17 @@
       <c r="E85" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5047,8 +6530,17 @@
       <c r="E86" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>431</v>
+      </c>
+      <c r="G86">
+        <v>145</v>
+      </c>
+      <c r="H86" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5064,8 +6556,17 @@
       <c r="E87" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>43</v>
+      </c>
+      <c r="G87">
+        <v>48</v>
+      </c>
+      <c r="H87" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5081,8 +6582,17 @@
       <c r="E88" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>130</v>
+      </c>
+      <c r="G88">
+        <v>190</v>
+      </c>
+      <c r="H88" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5098,8 +6608,17 @@
       <c r="E89" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>294</v>
+      </c>
+      <c r="G89">
+        <v>649</v>
+      </c>
+      <c r="H89" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5115,8 +6634,17 @@
       <c r="E90" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>21</v>
+      </c>
+      <c r="G90">
+        <v>53</v>
+      </c>
+      <c r="H90" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5132,8 +6660,17 @@
       <c r="E91" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>127</v>
+      </c>
+      <c r="G91">
+        <v>214</v>
+      </c>
+      <c r="H91" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5149,8 +6686,17 @@
       <c r="E92" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>605</v>
+      </c>
+      <c r="G92">
+        <v>130</v>
+      </c>
+      <c r="H92" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5166,8 +6712,17 @@
       <c r="E93" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>122</v>
+      </c>
+      <c r="G93">
+        <v>136</v>
+      </c>
+      <c r="H93" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5183,8 +6738,17 @@
       <c r="E94" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>90</v>
+      </c>
+      <c r="G94">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5200,8 +6764,17 @@
       <c r="E95" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>64</v>
+      </c>
+      <c r="G95">
+        <v>68</v>
+      </c>
+      <c r="H95" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5217,8 +6790,17 @@
       <c r="E96" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>41</v>
+      </c>
+      <c r="G96">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5234,8 +6816,17 @@
       <c r="E97" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5251,8 +6842,17 @@
       <c r="E98" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>19</v>
+      </c>
+      <c r="G98">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5268,8 +6868,17 @@
       <c r="E99" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5285,8 +6894,17 @@
       <c r="E100" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>112</v>
+      </c>
+      <c r="G100">
+        <v>120</v>
+      </c>
+      <c r="H100" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5302,8 +6920,17 @@
       <c r="E101" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>133</v>
+      </c>
+      <c r="G101">
+        <v>193</v>
+      </c>
+      <c r="H101" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5319,8 +6946,17 @@
       <c r="E102" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5336,8 +6972,17 @@
       <c r="E103" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>54</v>
+      </c>
+      <c r="G103">
+        <v>114</v>
+      </c>
+      <c r="H103" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5353,8 +6998,17 @@
       <c r="E104" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>15</v>
+      </c>
+      <c r="G104">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5370,8 +7024,17 @@
       <c r="E105" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>489</v>
+      </c>
+      <c r="G105">
+        <v>143</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5387,8 +7050,17 @@
       <c r="E106" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>40</v>
+      </c>
+      <c r="G106">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5404,8 +7076,17 @@
       <c r="E107" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>28</v>
+      </c>
+      <c r="G107">
+        <v>194</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5421,8 +7102,17 @@
       <c r="E108" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>33</v>
+      </c>
+      <c r="G108">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5438,8 +7128,17 @@
       <c r="E109" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>58</v>
+      </c>
+      <c r="G109">
+        <v>30</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5455,8 +7154,17 @@
       <c r="E110" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>17</v>
+      </c>
+      <c r="G110">
+        <v>55</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5472,8 +7180,17 @@
       <c r="E111" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>17</v>
+      </c>
+      <c r="G111">
+        <v>55</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5489,8 +7206,17 @@
       <c r="E112" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>54</v>
+      </c>
+      <c r="G112">
+        <v>66</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5506,8 +7232,17 @@
       <c r="E113" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>24</v>
+      </c>
+      <c r="G113">
+        <v>65</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5523,8 +7258,17 @@
       <c r="E114" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>53</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
+      <c r="H114" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5540,8 +7284,17 @@
       <c r="E115" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>124</v>
+      </c>
+      <c r="G115">
+        <v>271</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5557,8 +7310,17 @@
       <c r="E116" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>17</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5574,8 +7336,17 @@
       <c r="E117" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>60</v>
+      </c>
+      <c r="G117">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5591,8 +7362,17 @@
       <c r="E118" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>80</v>
+      </c>
+      <c r="G118">
+        <v>113</v>
+      </c>
+      <c r="H118" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5608,8 +7388,17 @@
       <c r="E119" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>48</v>
+      </c>
+      <c r="G119">
+        <v>140</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5625,8 +7414,17 @@
       <c r="E120" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>98</v>
+      </c>
+      <c r="G120">
+        <v>42</v>
+      </c>
+      <c r="H120" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5642,8 +7440,17 @@
       <c r="E121" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>18</v>
+      </c>
+      <c r="G121">
+        <v>63</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5659,8 +7466,17 @@
       <c r="E122" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>31</v>
+      </c>
+      <c r="G122">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5676,8 +7492,17 @@
       <c r="E123" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>7</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5693,8 +7518,17 @@
       <c r="E124" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>9</v>
+      </c>
+      <c r="H124" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5710,8 +7544,17 @@
       <c r="E125" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>406</v>
+      </c>
+      <c r="G125">
+        <v>270</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5727,8 +7570,17 @@
       <c r="E126" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>785</v>
+      </c>
+      <c r="G126">
+        <v>162</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5744,8 +7596,17 @@
       <c r="E127" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>106</v>
+      </c>
+      <c r="G127">
+        <v>117</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5761,8 +7622,17 @@
       <c r="E128" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>373</v>
+      </c>
+      <c r="G128">
+        <v>243</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5778,8 +7648,17 @@
       <c r="E129" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>38</v>
+      </c>
+      <c r="G129">
+        <v>31</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5795,8 +7674,17 @@
       <c r="E130" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>61</v>
+      </c>
+      <c r="G130">
+        <v>125</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5812,8 +7700,17 @@
       <c r="E131" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>100</v>
+      </c>
+      <c r="G131">
+        <v>43</v>
+      </c>
+      <c r="H131" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5829,8 +7726,17 @@
       <c r="E132" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5846,8 +7752,17 @@
       <c r="E133" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>52</v>
+      </c>
+      <c r="G133">
+        <v>120</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5863,8 +7778,17 @@
       <c r="E134" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134">
+        <v>10</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5880,8 +7804,17 @@
       <c r="E135" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>57</v>
+      </c>
+      <c r="G135">
+        <v>52</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5897,8 +7830,17 @@
       <c r="E136" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>13</v>
+      </c>
+      <c r="G136">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5914,8 +7856,17 @@
       <c r="E137" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>29</v>
+      </c>
+      <c r="G137">
+        <v>103</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5931,8 +7882,17 @@
       <c r="E138" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>289</v>
+      </c>
+      <c r="G138">
+        <v>42</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5948,8 +7908,17 @@
       <c r="E139" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>53</v>
+      </c>
+      <c r="G139">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5965,8 +7934,17 @@
       <c r="E140" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>33</v>
+      </c>
+      <c r="G140">
+        <v>115</v>
+      </c>
+      <c r="H140" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5982,8 +7960,17 @@
       <c r="E141" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>45</v>
+      </c>
+      <c r="G141">
+        <v>49</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5999,8 +7986,17 @@
       <c r="E142" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>32</v>
+      </c>
+      <c r="G142">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6016,8 +8012,17 @@
       <c r="E143" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>125</v>
+      </c>
+      <c r="G143">
+        <v>127</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6033,8 +8038,17 @@
       <c r="E144" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>40</v>
+      </c>
+      <c r="G144">
+        <v>8</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6050,8 +8064,17 @@
       <c r="E145" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>8</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6067,8 +8090,17 @@
       <c r="E146" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>245</v>
+      </c>
+      <c r="G146">
+        <v>43</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6084,8 +8116,17 @@
       <c r="E147" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>2968</v>
+      </c>
+      <c r="G147">
+        <v>2753</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6101,8 +8142,17 @@
       <c r="E148" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>18</v>
+      </c>
+      <c r="G148">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6118,8 +8168,17 @@
       <c r="E149" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>89</v>
+      </c>
+      <c r="G149">
+        <v>92</v>
+      </c>
+      <c r="H149" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6135,8 +8194,17 @@
       <c r="E150" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>51</v>
+      </c>
+      <c r="G150">
+        <v>146</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6152,8 +8220,17 @@
       <c r="E151" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>218</v>
+      </c>
+      <c r="G151">
+        <v>29</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6169,8 +8246,17 @@
       <c r="E152" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>11</v>
+      </c>
+      <c r="G152">
+        <v>25</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6186,8 +8272,17 @@
       <c r="E153" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>162</v>
+      </c>
+      <c r="G153">
+        <v>32</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6203,8 +8298,17 @@
       <c r="E154" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>36</v>
+      </c>
+      <c r="G154">
+        <v>25</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6220,8 +8324,17 @@
       <c r="E155" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>124</v>
+      </c>
+      <c r="G155">
+        <v>103</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6237,8 +8350,17 @@
       <c r="E156" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156">
+        <v>36</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6254,8 +8376,17 @@
       <c r="E157" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157">
+        <v>4</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6271,8 +8402,17 @@
       <c r="E158" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>47</v>
+      </c>
+      <c r="G158">
+        <v>48</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6288,8 +8428,17 @@
       <c r="E159" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>9</v>
+      </c>
+      <c r="G159">
+        <v>6</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6305,8 +8454,17 @@
       <c r="E160" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>77</v>
+      </c>
+      <c r="G160">
+        <v>119</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6322,8 +8480,17 @@
       <c r="E161" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>33</v>
+      </c>
+      <c r="G161">
+        <v>47</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6339,8 +8506,17 @@
       <c r="E162" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>339</v>
+      </c>
+      <c r="G162">
+        <v>266</v>
+      </c>
+      <c r="H162" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6356,8 +8532,17 @@
       <c r="E163" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>130</v>
+      </c>
+      <c r="G163">
+        <v>24</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6373,8 +8558,17 @@
       <c r="E164" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>35</v>
+      </c>
+      <c r="G164">
+        <v>37</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6390,8 +8584,17 @@
       <c r="E165" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>156</v>
+      </c>
+      <c r="G165">
+        <v>299</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6407,8 +8610,17 @@
       <c r="E166" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166">
+        <v>58</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6424,8 +8636,17 @@
       <c r="E167" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>831</v>
+      </c>
+      <c r="G167">
+        <v>910</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6441,8 +8662,17 @@
       <c r="E168" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>44</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6458,8 +8688,17 @@
       <c r="E169" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6475,8 +8714,17 @@
       <c r="E170" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6492,8 +8740,17 @@
       <c r="E171" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>38</v>
+      </c>
+      <c r="G171">
+        <v>31</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6509,8 +8766,17 @@
       <c r="E172" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>42</v>
+      </c>
+      <c r="G172">
+        <v>83</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6526,8 +8792,17 @@
       <c r="E173" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>8</v>
+      </c>
+      <c r="G173">
+        <v>18</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6543,8 +8818,17 @@
       <c r="E174" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>108</v>
+      </c>
+      <c r="G174">
+        <v>55</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6560,8 +8844,17 @@
       <c r="E175" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>6</v>
+      </c>
+      <c r="G175">
+        <v>45</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6577,8 +8870,17 @@
       <c r="E176" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>162</v>
+      </c>
+      <c r="G176">
+        <v>50</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6594,8 +8896,17 @@
       <c r="E177" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>105</v>
+      </c>
+      <c r="G177">
+        <v>130</v>
+      </c>
+      <c r="H177" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6611,8 +8922,17 @@
       <c r="E178" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178">
+        <v>52</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6628,8 +8948,17 @@
       <c r="E179" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>21</v>
+      </c>
+      <c r="G179">
+        <v>6</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6645,8 +8974,17 @@
       <c r="E180" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180">
+        <v>7</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6662,8 +9000,17 @@
       <c r="E181" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>47</v>
+      </c>
+      <c r="G181">
+        <v>10</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6679,8 +9026,17 @@
       <c r="E182" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>77</v>
+      </c>
+      <c r="G182">
+        <v>42</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6696,8 +9052,17 @@
       <c r="E183" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>45</v>
+      </c>
+      <c r="G183">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6713,8 +9078,17 @@
       <c r="E184" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>40</v>
+      </c>
+      <c r="G184">
+        <v>25</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6730,8 +9104,17 @@
       <c r="E185" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>32</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6747,8 +9130,17 @@
       <c r="E186" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>37</v>
+      </c>
+      <c r="G186">
+        <v>99</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6764,8 +9156,17 @@
       <c r="E187" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>44</v>
+      </c>
+      <c r="G187">
+        <v>46</v>
+      </c>
+      <c r="H187" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6781,8 +9182,17 @@
       <c r="E188" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>23</v>
+      </c>
+      <c r="G188">
+        <v>9</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6798,8 +9208,17 @@
       <c r="E189" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>20</v>
+      </c>
+      <c r="G189">
+        <v>253</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6815,8 +9234,17 @@
       <c r="E190" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>48</v>
+      </c>
+      <c r="G190">
+        <v>105</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6832,8 +9260,17 @@
       <c r="E191" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>45</v>
+      </c>
+      <c r="G191">
+        <v>28</v>
+      </c>
+      <c r="H191" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6849,8 +9286,17 @@
       <c r="E192" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>30</v>
+      </c>
+      <c r="G192">
+        <v>52</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6866,8 +9312,17 @@
       <c r="E193" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>73</v>
+      </c>
+      <c r="G193">
+        <v>230</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6883,8 +9338,17 @@
       <c r="E194" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>53</v>
+      </c>
+      <c r="G194">
+        <v>72</v>
+      </c>
+      <c r="H194" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6900,8 +9364,17 @@
       <c r="E195" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>15</v>
+      </c>
+      <c r="G195">
+        <v>9</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6917,8 +9390,17 @@
       <c r="E196" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>57</v>
+      </c>
+      <c r="G196">
+        <v>15</v>
+      </c>
+      <c r="H196" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6934,8 +9416,17 @@
       <c r="E197" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>18</v>
+      </c>
+      <c r="G197">
+        <v>20</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6951,8 +9442,17 @@
       <c r="E198" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>345</v>
+      </c>
+      <c r="G198">
+        <v>6</v>
+      </c>
+      <c r="H198" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6968,8 +9468,17 @@
       <c r="E199" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>39</v>
+      </c>
+      <c r="G199">
+        <v>6</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6985,8 +9494,17 @@
       <c r="E200" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>1030</v>
+      </c>
+      <c r="G200">
+        <v>337</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7002,8 +9520,17 @@
       <c r="E201" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>56</v>
+      </c>
+      <c r="G201">
+        <v>129</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7019,8 +9546,17 @@
       <c r="E202" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>3</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7036,8 +9572,17 @@
       <c r="E203" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>39</v>
+      </c>
+      <c r="G203">
+        <v>43</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7053,8 +9598,17 @@
       <c r="E204" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7070,8 +9624,17 @@
       <c r="E205" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>130</v>
+      </c>
+      <c r="G205">
+        <v>85</v>
+      </c>
+      <c r="H205" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7087,8 +9650,17 @@
       <c r="E206" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>166</v>
+      </c>
+      <c r="G206">
+        <v>54</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7104,8 +9676,17 @@
       <c r="E207" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>313</v>
+      </c>
+      <c r="G207">
+        <v>147</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7121,8 +9702,17 @@
       <c r="E208" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>5</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7138,8 +9728,17 @@
       <c r="E209" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>117</v>
+      </c>
+      <c r="G209">
+        <v>17</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7155,8 +9754,17 @@
       <c r="E210" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210">
+        <v>5</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7172,8 +9780,17 @@
       <c r="E211" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7189,8 +9806,17 @@
       <c r="E212" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>70</v>
+      </c>
+      <c r="G212">
+        <v>47</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7206,8 +9832,17 @@
       <c r="E213" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>23</v>
+      </c>
+      <c r="G213">
+        <v>27</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7223,8 +9858,17 @@
       <c r="E214" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>12</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7240,8 +9884,17 @@
       <c r="E215" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="G215">
+        <v>5</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7257,8 +9910,17 @@
       <c r="E216" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>33</v>
+      </c>
+      <c r="G216">
+        <v>45</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7274,8 +9936,17 @@
       <c r="E217" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>4</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7291,8 +9962,17 @@
       <c r="E218" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>18</v>
+      </c>
+      <c r="G218">
+        <v>33</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7308,8 +9988,17 @@
       <c r="E219" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="G219">
+        <v>6</v>
+      </c>
+      <c r="H219" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7325,8 +10014,17 @@
       <c r="E220" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>86</v>
+      </c>
+      <c r="G220">
+        <v>24</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7342,8 +10040,17 @@
       <c r="E221" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>9</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7359,8 +10066,17 @@
       <c r="E222" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>68</v>
+      </c>
+      <c r="G222">
+        <v>69</v>
+      </c>
+      <c r="H222" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7376,8 +10092,17 @@
       <c r="E223" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>8</v>
+      </c>
+      <c r="G223">
+        <v>18</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7393,8 +10118,17 @@
       <c r="E224" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>15</v>
+      </c>
+      <c r="H224" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7410,8 +10144,17 @@
       <c r="E225" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>27</v>
+      </c>
+      <c r="G225">
+        <v>33</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7427,8 +10170,17 @@
       <c r="E226" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7444,8 +10196,17 @@
       <c r="E227" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>103</v>
+      </c>
+      <c r="G227">
+        <v>37</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7461,8 +10222,17 @@
       <c r="E228" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>166</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7478,8 +10248,17 @@
       <c r="E229" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>25</v>
+      </c>
+      <c r="G229">
+        <v>31</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7495,8 +10274,17 @@
       <c r="E230" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230">
+        <v>9</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7512,8 +10300,17 @@
       <c r="E231" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>4</v>
+      </c>
+      <c r="G231">
+        <v>2</v>
+      </c>
+      <c r="H231" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7529,8 +10326,17 @@
       <c r="E232" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>2900</v>
+      </c>
+      <c r="G232">
+        <v>19</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7546,8 +10352,17 @@
       <c r="E233" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>31</v>
+      </c>
+      <c r="G233">
+        <v>37</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7563,8 +10378,17 @@
       <c r="E234" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>107</v>
+      </c>
+      <c r="G234">
+        <v>9</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7580,8 +10404,17 @@
       <c r="E235" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>7</v>
+      </c>
+      <c r="G235">
+        <v>75</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7597,8 +10430,17 @@
       <c r="E236" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>1852</v>
+      </c>
+      <c r="G236">
+        <v>1510</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7614,8 +10456,17 @@
       <c r="E237" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>46</v>
+      </c>
+      <c r="G237">
+        <v>20</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7631,8 +10482,17 @@
       <c r="E238" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>153</v>
+      </c>
+      <c r="G238">
+        <v>118</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7648,8 +10508,17 @@
       <c r="E239" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>13</v>
+      </c>
+      <c r="G239">
+        <v>12</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7665,8 +10534,17 @@
       <c r="E240" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>19</v>
+      </c>
+      <c r="G240">
+        <v>42</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7682,8 +10560,17 @@
       <c r="E241" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>7</v>
+      </c>
+      <c r="G241">
+        <v>24</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7699,8 +10586,17 @@
       <c r="E242" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>105</v>
+      </c>
+      <c r="G242">
+        <v>5</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7716,8 +10612,17 @@
       <c r="E243" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>14</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7733,8 +10638,17 @@
       <c r="E244" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>942</v>
+      </c>
+      <c r="G244">
+        <v>367</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7750,8 +10664,17 @@
       <c r="E245" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>38</v>
+      </c>
+      <c r="G245">
+        <v>40</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7767,8 +10690,17 @@
       <c r="E246" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>10</v>
+      </c>
+      <c r="G246">
+        <v>6</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7784,8 +10716,17 @@
       <c r="E247" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>148</v>
+      </c>
+      <c r="G247">
+        <v>38</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7801,8 +10742,17 @@
       <c r="E248" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7818,8 +10768,17 @@
       <c r="E249" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>89</v>
+      </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7835,8 +10794,17 @@
       <c r="E250" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>31</v>
+      </c>
+      <c r="G250">
+        <v>2</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7852,8 +10820,17 @@
       <c r="E251" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>18</v>
+      </c>
+      <c r="G251">
+        <v>12</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7869,8 +10846,17 @@
       <c r="E252" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>20</v>
+      </c>
+      <c r="G252">
+        <v>21</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7886,8 +10872,17 @@
       <c r="E253" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7903,8 +10898,17 @@
       <c r="E254" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>862</v>
+      </c>
+      <c r="G254">
+        <v>109</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7920,8 +10924,17 @@
       <c r="E255" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>3</v>
+      </c>
+      <c r="G255">
+        <v>24</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7937,8 +10950,17 @@
       <c r="E256" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>28</v>
+      </c>
+      <c r="G256">
+        <v>26</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7954,8 +10976,17 @@
       <c r="E257" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>10</v>
+      </c>
+      <c r="G257">
+        <v>16</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7971,8 +11002,17 @@
       <c r="E258" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>9</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7988,8 +11028,17 @@
       <c r="E259" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>1086</v>
+      </c>
+      <c r="G259">
+        <v>302</v>
+      </c>
+      <c r="H259" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8005,8 +11054,17 @@
       <c r="E260" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>1383</v>
+      </c>
+      <c r="G260">
+        <v>668</v>
+      </c>
+      <c r="H260" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8022,8 +11080,17 @@
       <c r="E261" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>31</v>
+      </c>
+      <c r="G261">
+        <v>34</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8039,8 +11106,17 @@
       <c r="E262" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>15</v>
+      </c>
+      <c r="G262">
+        <v>8</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8056,8 +11132,17 @@
       <c r="E263" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>34</v>
+      </c>
+      <c r="G263">
+        <v>19</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8073,8 +11158,17 @@
       <c r="E264" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>109</v>
+      </c>
+      <c r="G264">
+        <v>55</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8090,8 +11184,17 @@
       <c r="E265" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>5</v>
+      </c>
+      <c r="G265">
+        <v>19</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8107,8 +11210,17 @@
       <c r="E266" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>34</v>
+      </c>
+      <c r="G266">
+        <v>16</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8124,8 +11236,17 @@
       <c r="E267" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>25</v>
+      </c>
+      <c r="G267">
+        <v>15</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8141,8 +11262,17 @@
       <c r="E268" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8158,8 +11288,17 @@
       <c r="E269" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>10</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8175,8 +11314,17 @@
       <c r="E270" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>2</v>
+      </c>
+      <c r="H270" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8192,8 +11340,17 @@
       <c r="E271" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>121</v>
+      </c>
+      <c r="G271">
+        <v>44</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8209,8 +11366,17 @@
       <c r="E272" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>13</v>
+      </c>
+      <c r="G272">
+        <v>13</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8226,8 +11392,17 @@
       <c r="E273" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>8</v>
+      </c>
+      <c r="G273">
+        <v>73</v>
+      </c>
+      <c r="H273" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8243,8 +11418,17 @@
       <c r="E274" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>6</v>
+      </c>
+      <c r="G274">
+        <v>7</v>
+      </c>
+      <c r="H274" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -8260,8 +11444,17 @@
       <c r="E275" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>15</v>
+      </c>
+      <c r="G275">
+        <v>64</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -8277,8 +11470,17 @@
       <c r="E276" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>19</v>
+      </c>
+      <c r="G276">
+        <v>27</v>
+      </c>
+      <c r="H276" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -8294,8 +11496,17 @@
       <c r="E277" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>10</v>
+      </c>
+      <c r="G277">
+        <v>23</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8311,8 +11522,17 @@
       <c r="E278" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>92</v>
+      </c>
+      <c r="G278">
+        <v>6</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8328,8 +11548,17 @@
       <c r="E279" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>84</v>
+      </c>
+      <c r="G279">
+        <v>50</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8345,8 +11574,17 @@
       <c r="E280" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>39</v>
+      </c>
+      <c r="G280">
+        <v>15</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8362,8 +11600,17 @@
       <c r="E281" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>165</v>
+      </c>
+      <c r="G281">
+        <v>34</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8379,8 +11626,17 @@
       <c r="E282" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282">
+        <v>12</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8396,8 +11652,17 @@
       <c r="E283" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>11</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8413,8 +11678,17 @@
       <c r="E284" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>26</v>
+      </c>
+      <c r="G284">
+        <v>22</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8430,8 +11704,17 @@
       <c r="E285" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>48</v>
+      </c>
+      <c r="G285">
+        <v>8</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8447,8 +11730,17 @@
       <c r="E286" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>66</v>
+      </c>
+      <c r="G286">
+        <v>6</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8464,8 +11756,17 @@
       <c r="E287" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>6</v>
+      </c>
+      <c r="G287">
+        <v>7</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8481,8 +11782,17 @@
       <c r="E288" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8498,8 +11808,17 @@
       <c r="E289" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>4</v>
+      </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8515,8 +11834,17 @@
       <c r="E290" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>19</v>
+      </c>
+      <c r="G290">
+        <v>27</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8532,8 +11860,17 @@
       <c r="E291" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>16</v>
+      </c>
+      <c r="G291">
+        <v>9</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8549,8 +11886,17 @@
       <c r="E292" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>123</v>
+      </c>
+      <c r="G292">
+        <v>72</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8566,8 +11912,17 @@
       <c r="E293" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>6</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8583,8 +11938,17 @@
       <c r="E294" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>66</v>
+      </c>
+      <c r="G294">
+        <v>38</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8600,8 +11964,17 @@
       <c r="E295" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>3206</v>
+      </c>
+      <c r="G295">
+        <v>92</v>
+      </c>
+      <c r="H295" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8617,8 +11990,17 @@
       <c r="E296" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>47</v>
+      </c>
+      <c r="G296">
+        <v>15</v>
+      </c>
+      <c r="H296" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8634,8 +12016,17 @@
       <c r="E297" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>26</v>
+      </c>
+      <c r="G297">
+        <v>28</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8651,8 +12042,17 @@
       <c r="E298" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>10</v>
+      </c>
+      <c r="G298">
+        <v>20</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8668,8 +12068,17 @@
       <c r="E299" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>5</v>
+      </c>
+      <c r="G299">
+        <v>5</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8685,8 +12094,17 @@
       <c r="E300" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>3</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8701,6 +12119,15 @@
       </c>
       <c r="E301" t="s">
         <v>903</v>
+      </c>
+      <c r="F301">
+        <v>14</v>
+      </c>
+      <c r="G301">
+        <v>3</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
